--- a/Maps/5Fmap.xlsx
+++ b/Maps/5Fmap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masaki\Documents\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="0" windowWidth="24360" windowHeight="11480"/>
+    <workbookView xWindow="2475" yWindow="0" windowWidth="24360" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1969,6 +1969,124 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="4953000"/>
+          <a:ext cx="876300" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="11391900"/>
+          <a:ext cx="876300" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2239,11 +2357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
